--- a/Excel/valores-dez.xlsx
+++ b/Excel/valores-dez.xlsx
@@ -148,8 +148,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -177,11 +185,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,10 +710,14 @@
         <v>41</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E15" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
